--- a/biology/Botanique/Daucus_carota_subsp._hispanicus/Daucus_carota_subsp._hispanicus.xlsx
+++ b/biology/Botanique/Daucus_carota_subsp._hispanicus/Daucus_carota_subsp._hispanicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Daucus carota subsp. hispanicus, la Carotte d'Espagne, est une plante herbacée méditerranéenne de la famille des Apiacées.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Endémique de l'ouest de la région méditerranéenne[2], la Carotte d'Espagne pousse notamment dans les fissures des falaises rocheuses[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Endémique de l'ouest de la région méditerranéenne, la Carotte d'Espagne pousse notamment dans les fissures des falaises rocheuses.
 </t>
         </is>
       </c>
@@ -568,35 +584,107 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cette plante est d'abord décrite comme une espèce par le Français Antoine Gouan sous le basionyme Daucus hispanicus en 1773, puis est abaissée au rang de sous-espèce par le Suisse Albert Thellung en 1926, sous le nom correct Daucus carota subsp. hispanicus[1],[2].
-Synonymes
-Daucus carota subsp. hispanicus a pour synonymes :
-Daucus boissieui M.Hiroe[2]
-Daucus carota var. hispanicus (Gouan) Thell., 1926[2]
-Daucus carota var. leptophyllus (Willk. ex Barceló) Bonafè[2]
-Daucus gingidium subsp. gummifer (All.) Onno, 1936[1],[2]
-Daucus gingidium subsp. hispanicus (Gouan) O.Bolòs &amp; Vigo, 1974[1],[2]
-Daucus gingidium var. africanus Pau &amp; Font Quer[2]
-Daucus gummifer All., 1773[1],[2]
-Daucus gummifer Lam.[2]
-Daucus gummifer var. leptophyllus Willk.[2]
-Daucus gummifer var. leptophyllus Willk. ex Barceló[2]
-Daucus hispanicus Gouan, 1773[1],[2]
-Daucus hispidus Moench, 1794[1],[2]
-Daucus hispidus sensu Gren. &amp; Godr., 1848[1]
-Daucus jolensis Pomel[2]
-Daucus lucidus L.f.[2]
-Daucus matthiolii Bubani[2]
-Daucus mauritanicus Salzm.[2]
-Daucus mauritanicus Salzm. ex DC.[2]
-Daucus maximus f. leptophyllus Willk.[2]
-Daucus nebrodensis Strobl[2]
-Daucus nitidus Gasp.[2]
-Daucus vulgaris Lam.[2]
-Variétés
-Selon l'INPN      (30 mars 2021)[1], trois variétés appartiennent à cette sous-espèce :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est d'abord décrite comme une espèce par le Français Antoine Gouan sous le basionyme Daucus hispanicus en 1773, puis est abaissée au rang de sous-espèce par le Suisse Albert Thellung en 1926, sous le nom correct Daucus carota subsp. hispanicus,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Daucus_carota_subsp._hispanicus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daucus_carota_subsp._hispanicus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daucus carota subsp. hispanicus a pour synonymes :
+Daucus boissieui M.Hiroe
+Daucus carota var. hispanicus (Gouan) Thell., 1926
+Daucus carota var. leptophyllus (Willk. ex Barceló) Bonafè
+Daucus gingidium subsp. gummifer (All.) Onno, 1936,
+Daucus gingidium subsp. hispanicus (Gouan) O.Bolòs &amp; Vigo, 1974,
+Daucus gingidium var. africanus Pau &amp; Font Quer
+Daucus gummifer All., 1773,
+Daucus gummifer Lam.
+Daucus gummifer var. leptophyllus Willk.
+Daucus gummifer var. leptophyllus Willk. ex Barceló
+Daucus hispanicus Gouan, 1773,
+Daucus hispidus Moench, 1794,
+Daucus hispidus sensu Gren. &amp; Godr., 1848
+Daucus jolensis Pomel
+Daucus lucidus L.f.
+Daucus matthiolii Bubani
+Daucus mauritanicus Salzm.
+Daucus mauritanicus Salzm. ex DC.
+Daucus maximus f. leptophyllus Willk.
+Daucus nebrodensis Strobl
+Daucus nitidus Gasp.
+Daucus vulgaris Lam.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Daucus_carota_subsp._hispanicus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daucus_carota_subsp._hispanicus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon l'INPN      (30 mars 2021), trois variétés appartiennent à cette sous-espèce :
 Daucus carota var. brachycaulos Reduron, 2007
 Daucus carota var. hispanicus (Gouan) Thell., 1926
 Daucus carota var. linearis Reduron, 2007</t>
